--- a/result/all_covariance_matrices.xlsx
+++ b/result/all_covariance_matrices.xlsx
@@ -7,84 +7,87 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z1_Orientation" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z1_AngularVelocity" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z1_LinearAcceleration" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y16_Orientation" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y16_AngularVelocity" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y16_LinearAcceleration" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y7_Orientation" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y7_AngularVelocity" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y7_LinearAcceleration" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y15_Orientation" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y15_AngularVelocity" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y15_LinearAcceleration" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y17_Orientation" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y17_AngularVelocity" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y17_LinearAcceleration" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x4_Orientation" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x4_AngularVelocity" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x4_LinearAcceleration" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z2_Orientation" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z2_AngularVelocity" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z2_LinearAcceleration" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y5_Orientation" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y5_AngularVelocity" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y5_LinearAcceleration" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x7_Orientation" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x7_AngularVelocity" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x7_LinearAcceleration" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x6_Orientation" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x6_AngularVelocity" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x6_LinearAcceleration" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x2_Orientation" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x2_AngularVelocity" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x2_LinearAcceleration" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x3_Orientation" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x3_AngularVelocity" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x3_LinearAcceleration" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z7_Orientation" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z7_AngularVelocity" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z7_LinearAcceleration" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x13_Orientation" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x13_AngularVelocity" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x13_LinearAcceleration" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z5_Orientation" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z5_AngularVelocity" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z5_LinearAcceleration" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y3_Orientation" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y3_AngularVelocity" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y3_LinearAcceleration" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y2_Orientation" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y2_AngularVelocity" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y2_LinearAcceleration" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z4_Orientation" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z4_AngularVelocity" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z4_LinearAcceleration" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y6_Orientation" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y6_AngularVelocity" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y6_LinearAcceleration" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y4_Orientation" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y4_AngularVelocity" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y4_LinearAcceleration" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z3_Orientation" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z3_AngularVelocity" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z3_LinearAcceleration" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y1_Orientation" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y1_AngularVelocity" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y1_LinearAcceleration" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x1_Orientation" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x1_AngularVelocity" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x1_LinearAcceleration" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x5_Orientation" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x5_AngularVelocity" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-x5_LinearAcceleration" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y13_Orientation" sheetId="73" state="visible" r:id="rId73"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y13_AngularVelocity" sheetId="74" state="visible" r:id="rId74"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-y13_LinearAcceleration" sheetId="75" state="visible" r:id="rId75"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z6_Orientation" sheetId="76" state="visible" r:id="rId76"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z6_AngularVelocity" sheetId="77" state="visible" r:id="rId77"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covatiance_matrix_-z6_LinearAcceleration" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y4_Orientation" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y4_AngularVelocity" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y4_LinearAcceleration" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y8_Orientation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y8_AngularVelocity" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y8_LinearAcceleration" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z4_Orientation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z4_AngularVelocity" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z4_LinearAcceleration" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y6_Orientation" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y6_AngularVelocity" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y6_LinearAcceleration" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z9_Orientation" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z9_AngularVelocity" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z9_LinearAcceleration" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x7_Orientation" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x7_AngularVelocity" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x7_LinearAcceleration" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y2_Orientation" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y2_AngularVelocity" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y2_LinearAcceleration" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x1_Orientation" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x1_AngularVelocity" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x1_LinearAcceleration" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z2_Orientation" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z2_AngularVelocity" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z2_LinearAcceleration" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y1_Orientation" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y1_AngularVelocity" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y1_LinearAcceleration" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x8_Orientation" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x8_AngularVelocity" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x8_LinearAcceleration" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y9_Orientation" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y9_AngularVelocity" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y9_LinearAcceleration" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x9_Orientation" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x9_AngularVelocity" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x9_LinearAcceleration" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x5_Orientation" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x5_AngularVelocity" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x5_LinearAcceleration" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z5_Orientation" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z5_AngularVelocity" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z5_LinearAcceleration" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y7_Orientation" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y7_AngularVelocity" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y7_LinearAcceleration" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x2_Orientation" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x2_AngularVelocity" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x2_LinearAcceleration" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z7_Orientation" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z7_AngularVelocity" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z7_LinearAcceleration" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x6_Orientation" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x6_AngularVelocity" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x6_LinearAcceleration" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z6_Orientation" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z6_AngularVelocity" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z6_LinearAcceleration" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x4_Orientation" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x4_AngularVelocity" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x4_LinearAcceleration" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y5_Orientation" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y5_AngularVelocity" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y5_LinearAcceleration" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y3_Orientation" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y3_AngularVelocity" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-y3_LinearAcceleration" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z3_Orientation" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z3_AngularVelocity" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z3_LinearAcceleration" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x3_Orientation" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x3_AngularVelocity" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-x3_LinearAcceleration" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z1_Orientation" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z1_AngularVelocity" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z1_LinearAcceleration" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z8_Orientation" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z8_AngularVelocity" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_cov_mat-z8_LinearAcceleration" sheetId="81" state="visible" r:id="rId81"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -529,35 +532,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.07744e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4.77585e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.87204e-12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4.77585e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.05033e-09</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.18795e-13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.87204e-12</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5.18795e-13</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.829589999999999e-13</v>
+        <v>1.35474e-08</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-8.4691e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.7063e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-8.4691e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.37055e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.01742e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5.7063e-09</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.01742e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.851079999999999e-09</v>
       </c>
     </row>
   </sheetData>
@@ -598,35 +601,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.08114e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4.54554e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1.17359e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4.54554e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.30086e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-6.22892e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-1.17359e-09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-6.22892e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.21534e-10</v>
+        <v>9.05701e-09</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-2.70264e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.88119e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-2.70264e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.86406e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-4.81937e-09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-3.88119e-09</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-4.81937e-09</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.38366e-09</v>
       </c>
     </row>
   </sheetData>
@@ -667,35 +670,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.1955e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.81802e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7.43163e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.81802e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.02869e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.00865e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>7.43163e-09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.00865e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.2218e-06</v>
+        <v>2.34346e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.49615e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.89655e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.49615e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.85155e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.32863e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5.89655e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.32863e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.07169e-06</v>
       </c>
     </row>
   </sheetData>
@@ -736,35 +739,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.64963e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.80284e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-3.2288e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.80284e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.73179e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-3.62797e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-3.2288e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-3.62797e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.5673e-06</v>
+        <v>5.78358e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.28435e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.61587e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.28435e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.02466e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.07304e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5.61587e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.07304e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.04396e-06</v>
       </c>
     </row>
   </sheetData>
@@ -805,35 +808,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.97353e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.74329e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-7.39905e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.74329e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.92838e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-5.02878e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-7.39905e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-5.02878e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.88999e-10</v>
+        <v>8.30914e-09</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.35271e-09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.24784e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.35271e-09</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.2454e-08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.56354e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.24784e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.56354e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.8136e-06</v>
       </c>
     </row>
   </sheetData>
@@ -874,35 +877,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.22144e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-2.09766e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7.17122e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-2.09766e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.05265e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.82043e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>7.17122e-09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.82043e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.20102e-06</v>
+        <v>2.34887e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.46725e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.50273e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.46725e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.91631e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.83976e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-3.50273e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.83976e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.04302e-06</v>
       </c>
     </row>
   </sheetData>
@@ -943,35 +946,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.74358e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.8643e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-3.01736e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3.8643e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.64801e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-3.29773e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-3.01736e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-3.29773e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.5903e-06</v>
+        <v>5.68472e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9.387859999999999e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-9.42412e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9.387859999999999e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.37698e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.43741e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-9.42412e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.43741e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.14569e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1012,35 +1015,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.33277e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-4.85074e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1.84884e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-4.85074e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9.15317e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.430960000000001e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-1.84884e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6.430960000000001e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.99283e-09</v>
+        <v>2.47385e-07</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.48354e-09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.15843e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.48354e-09</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8.47803e-07</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.3414e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.15843e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.3414e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.95373e-07</v>
       </c>
     </row>
   </sheetData>
@@ -1081,35 +1084,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.16236e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.02675e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.83533e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.02675e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.94099e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.03748e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.83533e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.03748e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.22794e-06</v>
+        <v>2.34735e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.56837e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.62061e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.56837e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.84867e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.67666e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.62061e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.67666e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.04059e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1150,35 +1153,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.76792e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5.74086e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-4.30693e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5.74086e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.31258e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-5.34917e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-4.30693e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-5.34917e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.65601e-06</v>
+        <v>6.42732e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.8787e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.43902e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.8787e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.5582e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.69571e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-3.43902e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.69571e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.36376e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1219,35 +1222,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.33638e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6.68367e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1.00717e-11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>6.68367e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.18385e-09</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-1.39861e-11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-1.00717e-11</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-1.39861e-11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.38163e-12</v>
+        <v>1.04035e-08</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.44731e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-6.71314e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.44731e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.62484e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.15305e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-6.71314e-09</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.15305e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.86254e-08</v>
       </c>
     </row>
   </sheetData>
@@ -1288,35 +1291,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.26141e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-2.48127e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-9.842169999999999e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-2.48127e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.13637e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.5315e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-9.842169999999999e-09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6.5315e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.22959e-06</v>
+        <v>2.3249e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.01014e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.22182e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.01014e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.8336e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.02812e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5.22182e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.02812e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.15434e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1357,35 +1360,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.27956e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-2.57485e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-5.39581e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-2.57485e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.14764e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.23004e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-5.39581e-09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6.23004e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.22578e-06</v>
+        <v>2.32754e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.20629e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.13245e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.20629e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.8344e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.91632e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.13245e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.91632e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.13902e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1426,35 +1429,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.6671e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.2215e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1.4761e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.2215e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.87747e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.83654e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-1.4761e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.83654e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.04774e-06</v>
+        <v>1.19302e-05</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.303949999999999e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.07717e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8.303949999999999e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.90943e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.96289e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.07717e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.96289e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.99496e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1495,35 +1498,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.05912e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.12926e-09</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.51825e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.12926e-09</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.29224e-09</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-3.54553e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.51825e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-3.54553e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.44582e-10</v>
+        <v>1.74794e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-4.56684e-06</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.61925e-06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-4.56684e-06</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.52535e-05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.24379e-06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.61925e-06</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.24379e-06</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.50568e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1564,35 +1567,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.19678e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.25737e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.07428e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.25737e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.00533e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.2087e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.07428e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.2087e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.21411e-06</v>
+        <v>2.31409e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-8.10317e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.37293e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-8.10317e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.788e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.52937e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5.37293e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.52937e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.05092e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1633,35 +1636,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.63574e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.17791e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.45564e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3.17791e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.53627e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-1.57231e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-2.45564e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-1.57231e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.43813e-06</v>
+        <v>6.85457e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.47117e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.27487e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5.47117e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.89145e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.36686e-06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-7.27487e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.36686e-06</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.911110000000001e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1702,35 +1705,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.77299e-10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.55535e-11</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-3.51018e-11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.55535e-11</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7.94154e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.43556e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-3.51018e-11</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.43556e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.03662e-09</v>
+        <v>9.19789e-09</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.079970000000001e-09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.18907e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8.079970000000001e-09</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.48502e-08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.62752e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.18907e-09</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.62752e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.72029e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1771,35 +1774,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.1595e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-9.83504e-08</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.3564e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-9.83504e-08</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.97959e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.89942e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.3564e-09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.89942e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.21753e-06</v>
+        <v>2.387e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-2.08238e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.34407e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-2.08238e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.95982e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.505770000000001e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-4.34407e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.505770000000001e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.03545e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1840,35 +1843,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.32603e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.89568e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.57168e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.89568e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.9196e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.35339e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-2.57168e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.35339e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.50534e-06</v>
+        <v>5.90208e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.35269e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.08682e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5.35269e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.66802e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.29345e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-3.08682e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5.29345e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.32755e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1909,35 +1912,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.47263e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-6.16919e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.95168e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-6.16919e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8.46058e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.22614e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-2.95168e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.22614e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.3053e-09</v>
+        <v>4.38616e-07</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.58172e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.26671e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5.58172e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.72117e-07</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-9.620639999999999e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-7.26671e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-9.620639999999999e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.34468e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1978,35 +1981,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.18869e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.35996e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.19367e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.35996e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.95396e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.58572e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.19367e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.58572e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.21559e-06</v>
+        <v>2.3105e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.68252e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-9.679920000000001e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.68252e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.84474e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.853149999999999e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-9.679920000000001e-09</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.853149999999999e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.02564e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2047,35 +2050,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.52741e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.05148e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1.36636e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.05148e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.88312e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.83032e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-1.36636e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.83032e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.40568e-06</v>
+        <v>5.63724e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.04884e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.40213e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.04884e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.10484e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.30186e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.40213e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.30186e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.23344e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2116,35 +2119,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.22166e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8.20674e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-5.39993e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>8.20674e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.22798e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-4.2088e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-5.39993e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-4.2088e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.41554e-06</v>
+        <v>8.0431e-05</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.24419e-06</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.59151e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.24419e-06</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.06815e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-8.69691e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-4.59151e-05</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-8.69691e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.81154e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2185,35 +2188,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.0402e-10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-2.32316e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-3.53613e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-2.32316e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8.71537e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.82027e-11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-3.53613e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.82027e-11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.50858e-10</v>
+        <v>4.3378e-07</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.85158e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.85141e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.85158e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.70881e-05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-6.89286e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-3.85141e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-6.89286e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.49645e-07</v>
       </c>
     </row>
   </sheetData>
@@ -2254,35 +2257,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.15952e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.01794e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.09374e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.01794e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.93059e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.70463e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5.09374e-09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.70463e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.21042e-06</v>
+        <v>2.33772e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-9.022949999999999e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.17555e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-9.022949999999999e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.77726e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.00158e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5.17555e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.00158e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.01421e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2323,35 +2326,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.94235e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.31606e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.00432e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.31606e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.87735e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.24633e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-2.00432e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.24633e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.53079e-06</v>
+        <v>6.29845e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.36533e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.11453e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.36533e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.64618e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.17047e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5.11453e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5.17047e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.02392e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2392,35 +2395,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.75571e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-2.25558e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7.55092e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-2.25558e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8.36166e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.91225e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>7.55092e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.91225e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.0237e-09</v>
+        <v>1.15577e-08</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-5.2703e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-6.30315e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5.2703e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.59239e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.555400000000001e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-6.30315e-09</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.555400000000001e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.01518e-08</v>
       </c>
     </row>
   </sheetData>
@@ -2461,35 +2464,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.15217e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.07423e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6.65016e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.07423e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.98225e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.47363e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6.65016e-09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.47363e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.21948e-06</v>
+        <v>2.32493e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.09704e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.14384e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.09704e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.86927e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.23002e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-3.14384e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.23002e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.10527e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2530,35 +2533,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.44863e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.77746e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-3.26388e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.77746e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.05551e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-3.25437e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-3.26388e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-3.25437e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.51555e-06</v>
+        <v>5.67447e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.13382e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.05587e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.13382e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.01286e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.33318e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.05587e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.33318e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.96312e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2599,35 +2602,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.24528e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5.61511e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.77497e-11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5.61511e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9.90507e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-1.99312e-11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-2.77497e-11</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-1.99312e-11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.70341e-12</v>
+        <v>1.96285e-07</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-7.12458e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.74346e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-7.12458e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.42114e-07</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.12178e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.74346e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.12178e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.61147e-07</v>
       </c>
     </row>
   </sheetData>
@@ -2668,35 +2671,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.3058e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-2.43196e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.82046e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-2.43196e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.13429e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.23955e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.82046e-09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6.23955e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.20669e-06</v>
+        <v>2.33941e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.17269e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.18813e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.17269e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.80199e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.87937e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-3.18813e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.87937e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.02052e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2737,35 +2740,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.47236e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.72123e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.16089e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.72123e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.83787e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.48651e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-2.16089e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.48651e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.219490000000001e-06</v>
+        <v>6.04311e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.49641e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.6245e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.49641e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.38017e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.74809e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.6245e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.74809e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.97448e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2806,35 +2809,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.45757e-10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.71806e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-3.241e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.71806e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9.448629999999999e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-8.71473e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-3.241e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-8.71473e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.3485e-10</v>
+        <v>1.08705e-08</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-7.32975e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-8.72952e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-7.32975e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.27185e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.67331e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-8.72952e-09</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.67331e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.8113e-08</v>
       </c>
     </row>
   </sheetData>
@@ -2875,35 +2878,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.11047e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-7.05411e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.80306e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-7.05411e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8.93781e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.76075e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.80306e-09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.76075e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.96239e-09</v>
+        <v>2.88826e-07</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-5.27792e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.67517e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5.27792e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.5622e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.19752e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.67517e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.19752e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.53949e-07</v>
       </c>
     </row>
   </sheetData>
@@ -2944,35 +2947,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.18825e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.10594e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.92497e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.10594e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.97793e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.42766e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2.92497e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.42766e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.22649e-06</v>
+        <v>2.32996e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.37759e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.88238e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.37759e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.81393e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.335590000000001e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5.88238e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.335590000000001e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.00895e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3013,35 +3016,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.429030000000001e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>9.32341e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-7.08961e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>9.32341e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.26494e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-5.7013e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-7.08961e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-5.7013e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.49711e-06</v>
+        <v>6.33968e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.26229e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.30304e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.26229e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.44079e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.37183e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.30304e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.37183e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.26287e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3082,35 +3085,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.38512e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7.8429e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1.02881e-12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>7.8429e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.38773e-09</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.39313e-12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-1.02881e-12</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.39313e-12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.95169e-12</v>
+        <v>8.709909999999999e-09</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.99461e-09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.19294e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.99461e-09</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.52397e-08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.41728e-09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4.19294e-09</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.41728e-09</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.12573e-07</v>
       </c>
     </row>
   </sheetData>
@@ -3151,35 +3154,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.21583e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-2.27842e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7.3674e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-2.27842e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.12404e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.987369999999999e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>7.3674e-09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5.987369999999999e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.23109e-06</v>
+        <v>2.35163e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.86578e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.30519e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.86578e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.91888e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.82815e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-4.30519e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.82815e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.02982e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3220,35 +3223,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.72088e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4.41397e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-9.47546e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4.41397e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.02439e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-3.05063e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-9.47546e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-3.05063e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.835419999999999e-06</v>
+        <v>5.8579e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.18911e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.37804e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.18911e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.73382e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-4.94866e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-3.37804e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-4.94866e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.3245e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3289,35 +3292,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.97909e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.04439e-09</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.86533e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.04439e-09</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.28057e-09</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-5.94291e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.86533e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-5.94291e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.429420000000001e-10</v>
+        <v>8.66867e-09</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.90362e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.91651e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.90362e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.95725e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.62302e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.91651e-09</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.62302e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.96747e-09</v>
       </c>
     </row>
   </sheetData>
@@ -3358,35 +3361,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.20863e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.45999e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.77871e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.45999e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.98817e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.78412e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2.77871e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.78412e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.21539e-06</v>
+        <v>2.3376e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.31574e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.15264e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.31574e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.86055e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.80555e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-4.15264e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.80555e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.09891e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3427,35 +3430,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.70592e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4.68415e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-3.26214e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4.68415e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7.19545e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-3.67947e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-3.26214e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-3.67947e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.46651e-06</v>
+        <v>5.84634e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.40799e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.70156e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.40799e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.00033e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.02025e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.70156e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.02025e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.94687e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3496,35 +3499,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.1142e-10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.26455e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1.89753e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.26455e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.26964e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-4.962780000000001e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-1.89753e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-4.962780000000001e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.00028e-10</v>
+        <v>2.22742e-07</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-4.50599e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.96487e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-4.50599e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.29502e-07</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.71822e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.96487e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.71822e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.78793e-07</v>
       </c>
     </row>
   </sheetData>
@@ -3565,35 +3568,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.22551e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.64053e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.21513e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.64053e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.05875e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.43114e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2.21513e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.43114e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.21767e-06</v>
+        <v>2.30369e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.32637e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.08353e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.32637e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.87357e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.87877e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-4.08353e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.87877e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.07505e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3634,35 +3637,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.22655e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.57016e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.28448e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.57016e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.01293e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.77049e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2.28448e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.77049e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.20896e-06</v>
+        <v>2.34427e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.53725e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.34046e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.53725e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.82481e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.00757e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-4.34046e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.00757e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.029e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3703,35 +3706,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.47457e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.09114e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.09393e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3.09114e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.68243e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.66494e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-2.09393e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.66494e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.26363e-06</v>
+        <v>6.81039e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.86324e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.20973e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.86324e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.61695e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.31356e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.20973e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.31356e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.51605e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3772,35 +3775,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.19369e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4.62941e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-5.63503e-12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4.62941e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9.326000000000001e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-4.52671e-13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-5.63503e-12</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-4.52671e-13</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.12344e-12</v>
+        <v>8.710879999999999e-09</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.776829999999999e-09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.77848e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.776829999999999e-09</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.46567e-08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.19031e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.77848e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.19031e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.23686e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3841,35 +3844,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.23893e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.96172e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.97291e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.96172e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.06117e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.88274e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.97291e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.88274e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.21627e-06</v>
+        <v>2.38346e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.53084e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.08742e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.53084e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.91838e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.61028e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.08742e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.61028e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.08374e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3910,35 +3913,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.59814e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.9963e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.06731e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.9963e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.84025e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.58272e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-2.06731e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.58272e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.22325e-06</v>
+        <v>5.78498e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.70779e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.44695e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.70779e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.52097e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.21103e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.44695e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.21103e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.19661e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3979,35 +3982,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.8502e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7.27187e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.29799e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>7.27187e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.11411e-09</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-6.10753e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5.29799e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-6.10753e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.20247e-09</v>
+        <v>3.75605e-07</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-4.23375e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.34989e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-4.23375e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.36329e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.88318e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-3.34989e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.88318e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.04752e-07</v>
       </c>
     </row>
   </sheetData>
@@ -4048,35 +4051,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.17982e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.35933e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.2647e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.35933e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.99917e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.39469e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.2647e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.39469e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.21353e-06</v>
+        <v>2.37435e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.39112e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.98191e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.39112e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.8362e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.989979999999999e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-4.98191e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.989979999999999e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.05844e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4117,35 +4120,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.53585e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4.20476e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.82542e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4.20476e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.85425e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.90599e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-2.82542e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.90599e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.641009999999999e-06</v>
+        <v>6.69847e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.06647e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.42358e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.06647e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.65899e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.83536e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5.42358e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5.83536e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.92855e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4186,35 +4189,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.27375e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>9.7685e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.49297e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>9.7685e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.18078e-09</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-4.69996e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5.49297e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-4.69996e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.05247e-09</v>
+        <v>9.44219e-09</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.85485e-09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.20334e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.85485e-09</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.65425e-08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.59493e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.20334e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.59493e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.84424e-07</v>
       </c>
     </row>
   </sheetData>
@@ -4255,35 +4258,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.18661e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.15361e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.06764e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.15361e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.99051e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.74125e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.06764e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.74125e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.21811e-06</v>
+        <v>2.37538e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.3539e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.85137e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.3539e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.90142e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.15353e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.85137e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.15353e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.0466e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4324,35 +4327,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.75967e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.78587e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-4.58704e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3.78587e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.64146e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-4.4777e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-4.58704e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-4.4777e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.815170000000001e-06</v>
+        <v>6.33372e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.73001e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.63515e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.73001e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.1395e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-4.47836e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-4.63515e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-4.47836e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.11972e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4393,35 +4396,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.64121e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.38606e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-3.43053e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3.38606e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.7172e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.73686e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-3.43053e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.73686e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.52432e-06</v>
+        <v>5.89943e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.91316e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.879e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.91316e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.65704e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.39856e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.879e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.39856e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.07069e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4462,35 +4465,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.2247e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4.9837e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1.22708e-11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4.9837e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8.58619e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-8.23026e-12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-1.22708e-11</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-8.23026e-12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.04866e-12</v>
+        <v>3.19078e-07</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-3.22041e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.80406e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-3.22041e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.95825e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.18132e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.80406e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.18132e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.54123e-07</v>
       </c>
     </row>
   </sheetData>
@@ -4531,35 +4534,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.28687e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-2.4036e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.08358e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-2.4036e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.13923e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.97569e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-2.08358e-09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7.97569e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.22499e-06</v>
+        <v>2.34702e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.39718e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.25207e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.39718e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.83487e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.710719999999999e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-4.25207e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.710719999999999e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.04156e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4600,35 +4603,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.60151e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.2458e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1.10945e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.2458e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.76597e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.21884e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-1.10945e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.21884e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.11697e-06</v>
+        <v>6.255e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.22585e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.75108e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.22585e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.66511e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.3345e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-3.75108e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.3345e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.71992e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4669,35 +4672,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.330930000000001e-10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.17587e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.52267e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.17587e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.39727e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-5.30883e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-2.52267e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-5.30883e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.70576e-10</v>
+        <v>1.24164e-08</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.63427e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.71056e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.63427e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.4003e-07</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.68984e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-4.71056e-09</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.68984e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.13065e-09</v>
       </c>
     </row>
   </sheetData>
@@ -4738,35 +4741,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.21167e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.71418e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-6.81086e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.71418e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.07734e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.46807e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-6.81086e-09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5.46807e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.22105e-06</v>
+        <v>2.32324e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.30758e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.40113e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.30758e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.84328e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.29777e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-4.40113e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.29777e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.07396e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4807,35 +4810,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.55035e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.77043e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.29663e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3.77043e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.62962e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.79732e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-2.29663e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.79732e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.41428e-06</v>
+        <v>5.94279e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.65899e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.35731e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.65899e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.94284e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.52693e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.35731e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.52693e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.31252e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4876,35 +4879,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.99942e-10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-3.77862e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-4.00464e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-3.77862e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7.73143e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.21736e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-4.00464e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.21736e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.55896e-10</v>
+        <v>9.198010000000001e-09</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-3.11397e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.03499e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-3.11397e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.21746e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.90721e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-7.03499e-09</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.90721e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.7143e-08</v>
       </c>
     </row>
   </sheetData>
@@ -4945,35 +4948,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.15619e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.33794e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.82862e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.33794e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.99163e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.07276e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>8.82862e-09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.07276e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.19978e-06</v>
+        <v>2.31578e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.25649e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.19029e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.25649e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.86252e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.70315e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5.19029e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.70315e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.11549e-06</v>
       </c>
     </row>
   </sheetData>
@@ -5014,35 +5017,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.71638e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.90733e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-4.17733e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.90733e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.17175e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.86103e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-4.17733e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.86103e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.55296e-06</v>
+        <v>6.48816e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.51173e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.75101e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.51173e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.00054e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.8317e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.75101e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.8317e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.05357e-06</v>
       </c>
     </row>
   </sheetData>
@@ -5083,35 +5086,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.97629e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-7.58141e-11</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-5.31639e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-7.58141e-11</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.92058e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-4.62477e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-5.31639e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-4.62477e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.11412e-10</v>
+        <v>9.17605e-09</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.31147e-09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.64937e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.31147e-09</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.29452e-08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.35134e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.64937e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.35134e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.30285e-06</v>
       </c>
     </row>
   </sheetData>
@@ -5152,35 +5155,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.6717e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.93459e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6.23518e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.93459e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.97773e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.98991e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6.23518e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.98991e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.52056e-09</v>
+        <v>1.00823e-08</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.598790000000001e-09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.00594e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8.598790000000001e-09</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.46127e-08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-6.37258e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5.00594e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-6.37258e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.22542e-06</v>
       </c>
     </row>
   </sheetData>
@@ -5221,35 +5224,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.20697e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.60276e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.25443e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.60276e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.10652e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.57132e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.25443e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.57132e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.38931e-06</v>
+        <v>2.42209e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.9024e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-6.41186e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.9024e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.94162e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.90896e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-6.41186e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.90896e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.03416e-06</v>
       </c>
     </row>
   </sheetData>
@@ -5290,35 +5293,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.53949e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.21075e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-8.37648e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.21075e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.06971e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-3.01172e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-8.37648e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-3.01172e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.41089e-06</v>
+        <v>5.90558e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.32492e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.13851e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.32492e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.64988e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-4.43858e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-3.13851e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-4.43858e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.5983e-06</v>
       </c>
     </row>
   </sheetData>
@@ -5359,35 +5362,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.5421e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-6.98632e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1.00782e-09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-6.98632e-10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.20773e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-3.36598e-10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-1.00782e-09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-3.36598e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.3473e-10</v>
+        <v>2.82835e-07</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.1994e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.3148e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.1994e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.1615e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-6.509019999999999e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.3148e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-6.509019999999999e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.98388e-07</v>
       </c>
     </row>
   </sheetData>
@@ -5428,35 +5431,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.25083e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.67639e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.6738e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.67639e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.06058e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.31199e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.6738e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.31199e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.2257e-06</v>
+        <v>2.33742e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.39936e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.94299e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.39936e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.83836e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.04635e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5.94299e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.04635e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.03362e-06</v>
       </c>
     </row>
   </sheetData>
@@ -5497,35 +5500,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.7494e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.24235e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.66675e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3.24235e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.83054e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.57928e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-2.66675e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.57928e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.1289e-06</v>
+        <v>6.84261e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.79688e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.14534e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.79688e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.06539e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-7.67253e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-7.14534e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-7.67253e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.5481e-06</v>
       </c>
     </row>
   </sheetData>
@@ -5566,35 +5569,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.79691e-09</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.30949e-09</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.56443e-11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.30949e-09</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.95992e-09</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.65124e-11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4.56443e-11</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5.65124e-11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.68685e-12</v>
+        <v>1.04351e-08</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.04174e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.67145e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.04174e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.90355e-08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.18952e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.67145e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.18952e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.23269e-07</v>
       </c>
     </row>
   </sheetData>
@@ -5635,35 +5638,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.28752e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-2.39785e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.3801e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-2.39785e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.16827e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.31737e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.3801e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6.31737e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.23165e-06</v>
+        <v>2.36301e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.65179e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.7902e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.65179e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.92989e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.064099999999999e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-4.7902e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.064099999999999e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.00584e-06</v>
       </c>
     </row>
   </sheetData>
@@ -5704,35 +5707,104 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.74921e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6.59687e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-4.25018e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>6.59687e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.28191e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-5.33053e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-4.25018e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-5.33053e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.25919e-06</v>
+        <v>5.91716e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.58999e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-6.643e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5.58999e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.66269e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-7.25225e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-6.643e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-7.25225e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.03158e-06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>9.49586e-09</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.649299999999999e-09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.18334e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.649299999999999e-09</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.49057e-08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.2025e-09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.18334e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.2025e-09</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.08646e-06</v>
       </c>
     </row>
   </sheetData>
@@ -5773,35 +5845,173 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.2115e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.6947e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.91063e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.6947e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.99382e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.54122e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.91063e-08</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.54122e-08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.22017e-06</v>
+        <v>2.35367e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.55201e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.72484e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.55201e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.9236e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.34123e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-2.72484e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.34123e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.04799e-06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.413e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.47801e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.07091e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.47801e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.91722e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.89898e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5.07091e-08</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.89898e-08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.06351e-06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5.90005e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.99421e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.58873e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.99421e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.51911e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.85642e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-3.58873e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.85642e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.44991e-06</v>
       </c>
     </row>
   </sheetData>
@@ -5842,35 +6052,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.67063e-06</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.75042e-07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.90496e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3.75042e-07</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.83069e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-3.56943e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-2.90496e-07</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-3.56943e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.55333e-06</v>
+        <v>5.82443e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.19087e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.05358e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.19087e-07</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.36593e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.77649e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.05358e-07</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.77649e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.0988e-06</v>
       </c>
     </row>
   </sheetData>
